--- a/FBREF_VAIBHAV_TEAM_NAME_MAPPINGS.xlsx
+++ b/FBREF_VAIBHAV_TEAM_NAME_MAPPINGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0029FV744\Desktop\DATA SCIENCE\FPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DCE79D-E9F9-4159-9DCA-CBD180AC3AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC9BEAD-CA56-45DE-9E74-4DDDC3D23631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A8081318-6892-4785-B85A-1872CB4415E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Arsenal</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Spurs</t>
+  </si>
+  <si>
+    <t>vaibhav_master_team_id</t>
+  </si>
+  <si>
+    <t>fbref_master_team_id</t>
   </si>
 </sst>
 </file>
@@ -524,233 +530,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD89ED3-D655-4EC3-829A-24B30E3ACB7E}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="D21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="D24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
         <v>26</v>
       </c>
     </row>
